--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H2">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.283615749600066</v>
+        <v>0.02353333333333333</v>
       </c>
       <c r="N2">
-        <v>0.283615749600066</v>
+        <v>0.0706</v>
       </c>
       <c r="O2">
-        <v>0.001148091234657712</v>
+        <v>8.933327291063576E-05</v>
       </c>
       <c r="P2">
-        <v>0.001148091234657712</v>
+        <v>8.933327291063577E-05</v>
       </c>
       <c r="Q2">
-        <v>5.041553645972631</v>
+        <v>0.4476237444666666</v>
       </c>
       <c r="R2">
-        <v>5.041553645972631</v>
+        <v>4.028613700199999</v>
       </c>
       <c r="S2">
-        <v>3.672826603288872E-06</v>
+        <v>2.613136862598761E-07</v>
       </c>
       <c r="T2">
-        <v>3.672826603288872E-06</v>
+        <v>2.613136862598761E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H3">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.9794562998195</v>
+        <v>0.292517</v>
       </c>
       <c r="N3">
-        <v>23.9794562998195</v>
+        <v>0.877551</v>
       </c>
       <c r="O3">
-        <v>0.09707008030584358</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="P3">
-        <v>0.09707008030584358</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="Q3">
-        <v>426.2588220409895</v>
+        <v>5.563918761762999</v>
       </c>
       <c r="R3">
-        <v>426.2588220409895</v>
+        <v>50.07526885586699</v>
       </c>
       <c r="S3">
-        <v>0.0003105341827968763</v>
+        <v>3.248103210921253E-06</v>
       </c>
       <c r="T3">
-        <v>0.0003105341827968763</v>
+        <v>3.248103210921254E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H4">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.0369596986572</v>
+        <v>27.06976999999999</v>
       </c>
       <c r="N4">
-        <v>27.0369596986572</v>
+        <v>81.20930999999999</v>
       </c>
       <c r="O4">
-        <v>0.109447012324223</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="P4">
-        <v>0.109447012324223</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="Q4">
-        <v>480.6090033328268</v>
+        <v>514.8897369370299</v>
       </c>
       <c r="R4">
-        <v>480.6090033328268</v>
+        <v>4634.007632433269</v>
       </c>
       <c r="S4">
-        <v>0.0003501288803365317</v>
+        <v>0.0003005822118232439</v>
       </c>
       <c r="T4">
-        <v>0.0003501288803365317</v>
+        <v>0.0003005822118232439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H5">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>194.283207597722</v>
+        <v>28.294172</v>
       </c>
       <c r="N5">
-        <v>194.283207597722</v>
+        <v>84.882516</v>
       </c>
       <c r="O5">
-        <v>0.7864684806773418</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="P5">
-        <v>0.7864684806773418</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="Q5">
-        <v>3453.578353800014</v>
+        <v>538.178890250308</v>
       </c>
       <c r="R5">
-        <v>3453.578353800014</v>
+        <v>4843.610012252771</v>
       </c>
       <c r="S5">
-        <v>0.002515969350938478</v>
+        <v>0.0003141779483707212</v>
       </c>
       <c r="T5">
-        <v>0.002515969350938478</v>
+        <v>0.0003141779483707212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H6">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44917501160389</v>
+        <v>205.3474576666667</v>
       </c>
       <c r="N6">
-        <v>1.44917501160389</v>
+        <v>616.042373</v>
       </c>
       <c r="O6">
-        <v>0.005866335457934059</v>
+        <v>0.7795054027156469</v>
       </c>
       <c r="P6">
-        <v>0.005866335457934059</v>
+        <v>0.7795054027156471</v>
       </c>
       <c r="Q6">
-        <v>25.76053542057003</v>
+        <v>3905.880931336982</v>
       </c>
       <c r="R6">
-        <v>25.76053542057003</v>
+        <v>35152.92838203284</v>
       </c>
       <c r="S6">
-        <v>1.87668299202203E-05</v>
+        <v>0.002280174268851439</v>
       </c>
       <c r="T6">
-        <v>1.87668299202203E-05</v>
+        <v>0.002280174268851439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.02649566790478</v>
+        <v>19.020839</v>
       </c>
       <c r="H7">
-        <v>3.02649566790478</v>
+        <v>57.062517</v>
       </c>
       <c r="I7">
-        <v>0.0005446657069790546</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J7">
-        <v>0.0005446657069790546</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.283615749600066</v>
+        <v>2.405564</v>
       </c>
       <c r="N7">
-        <v>0.283615749600066</v>
+        <v>7.216692</v>
       </c>
       <c r="O7">
-        <v>0.001148091234657712</v>
+        <v>0.00913159654317283</v>
       </c>
       <c r="P7">
-        <v>0.001148091234657712</v>
+        <v>0.009131596543172832</v>
       </c>
       <c r="Q7">
-        <v>0.8583618375141667</v>
+        <v>45.755845548196</v>
       </c>
       <c r="R7">
-        <v>0.8583618375141667</v>
+        <v>411.802609933764</v>
       </c>
       <c r="S7">
-        <v>6.253259240012986E-07</v>
+        <v>2.67113369564045E-05</v>
       </c>
       <c r="T7">
-        <v>6.253259240012986E-07</v>
+        <v>2.671133695640451E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H8">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>23.9794562998195</v>
+        <v>0.02353333333333333</v>
       </c>
       <c r="N8">
-        <v>23.9794562998195</v>
+        <v>0.0706</v>
       </c>
       <c r="O8">
-        <v>0.09707008030584358</v>
+        <v>8.933327291063576E-05</v>
       </c>
       <c r="P8">
-        <v>0.09707008030584358</v>
+        <v>8.933327291063577E-05</v>
       </c>
       <c r="Q8">
-        <v>72.5737206101157</v>
+        <v>0.07632562077777777</v>
       </c>
       <c r="R8">
-        <v>72.5737206101157</v>
+        <v>0.6869305869999999</v>
       </c>
       <c r="S8">
-        <v>5.287074391629589E-05</v>
+        <v>4.455735328624808E-08</v>
       </c>
       <c r="T8">
-        <v>5.287074391629589E-05</v>
+        <v>4.455735328624809E-08</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H9">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.0369596986572</v>
+        <v>0.292517</v>
       </c>
       <c r="N9">
-        <v>27.0369596986572</v>
+        <v>0.877551</v>
       </c>
       <c r="O9">
-        <v>0.109447012324223</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="P9">
-        <v>0.109447012324223</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="Q9">
-        <v>81.82724140130215</v>
+        <v>0.9487198985716665</v>
       </c>
       <c r="R9">
-        <v>81.82724140130215</v>
+        <v>8.538479087144999</v>
       </c>
       <c r="S9">
-        <v>5.961203434431819E-05</v>
+        <v>5.538434834801741E-07</v>
       </c>
       <c r="T9">
-        <v>5.961203434431819E-05</v>
+        <v>5.538434834801743E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H10">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>194.283207597722</v>
+        <v>27.06976999999999</v>
       </c>
       <c r="N10">
-        <v>194.283207597722</v>
+        <v>81.20930999999999</v>
       </c>
       <c r="O10">
-        <v>0.7864684806773418</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="P10">
-        <v>0.7864684806773418</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="Q10">
-        <v>587.9972861411507</v>
+        <v>87.79533992471664</v>
       </c>
       <c r="R10">
-        <v>587.9972861411507</v>
+        <v>790.1580593224498</v>
       </c>
       <c r="S10">
-        <v>0.0004283624110448673</v>
+        <v>5.125314328332067E-05</v>
       </c>
       <c r="T10">
-        <v>0.0004283624110448673</v>
+        <v>5.125314328332067E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H11">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.44917501160389</v>
+        <v>28.294172</v>
       </c>
       <c r="N11">
-        <v>1.44917501160389</v>
+        <v>84.882516</v>
       </c>
       <c r="O11">
-        <v>0.005866335457934059</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="P11">
-        <v>0.005866335457934059</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="Q11">
-        <v>4.385921894655032</v>
+        <v>91.76644089064666</v>
       </c>
       <c r="R11">
-        <v>4.385921894655032</v>
+        <v>825.8979680158199</v>
       </c>
       <c r="S11">
-        <v>3.19519174957195E-06</v>
+        <v>5.357139168891793E-05</v>
       </c>
       <c r="T11">
-        <v>3.19519174957195E-06</v>
+        <v>5.357139168891793E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1680.74953322845</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H12">
-        <v>1680.74953322845</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.3024774304085974</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J12">
-        <v>0.3024774304085974</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.283615749600066</v>
+        <v>205.3474576666667</v>
       </c>
       <c r="N12">
-        <v>0.283615749600066</v>
+        <v>616.042373</v>
       </c>
       <c r="O12">
-        <v>0.001148091234657712</v>
+        <v>0.7795054027156469</v>
       </c>
       <c r="P12">
-        <v>0.001148091234657712</v>
+        <v>0.7795054027156471</v>
       </c>
       <c r="Q12">
-        <v>476.6870387565479</v>
+        <v>666.0030672045372</v>
       </c>
       <c r="R12">
-        <v>476.6870387565479</v>
+        <v>5994.027604840834</v>
       </c>
       <c r="S12">
-        <v>0.0003472716865338989</v>
+        <v>0.0003887991168988615</v>
       </c>
       <c r="T12">
-        <v>0.0003472716865338989</v>
+        <v>0.0003887991168988615</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1680.74953322845</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H13">
-        <v>1680.74953322845</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.3024774304085974</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J13">
-        <v>0.3024774304085974</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.9794562998195</v>
+        <v>2.405564</v>
       </c>
       <c r="N13">
-        <v>23.9794562998195</v>
+        <v>7.216692</v>
       </c>
       <c r="O13">
-        <v>0.09707008030584358</v>
+        <v>0.00913159654317283</v>
       </c>
       <c r="P13">
-        <v>0.09707008030584358</v>
+        <v>0.009131596543172832</v>
       </c>
       <c r="Q13">
-        <v>40303.45998299364</v>
+        <v>7.801961711926666</v>
       </c>
       <c r="R13">
-        <v>40303.45998299364</v>
+        <v>70.21765540733999</v>
       </c>
       <c r="S13">
-        <v>0.02936150846046776</v>
+        <v>4.55462740796091E-06</v>
       </c>
       <c r="T13">
-        <v>0.02936150846046776</v>
+        <v>4.554627407960911E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H14">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>27.0369596986572</v>
+        <v>0.02353333333333333</v>
       </c>
       <c r="N14">
-        <v>27.0369596986572</v>
+        <v>0.0706</v>
       </c>
       <c r="O14">
-        <v>0.109447012324223</v>
+        <v>8.933327291063576E-05</v>
       </c>
       <c r="P14">
-        <v>0.109447012324223</v>
+        <v>8.933327291063577E-05</v>
       </c>
       <c r="Q14">
-        <v>45442.3573934345</v>
+        <v>59.24707894611111</v>
       </c>
       <c r="R14">
-        <v>45442.3573934345</v>
+        <v>533.2237105149999</v>
       </c>
       <c r="S14">
-        <v>0.03310525105372905</v>
+        <v>3.458724607646701E-05</v>
       </c>
       <c r="T14">
-        <v>0.03310525105372905</v>
+        <v>3.458724607646702E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H15">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>194.283207597722</v>
+        <v>0.292517</v>
       </c>
       <c r="N15">
-        <v>194.283207597722</v>
+        <v>0.877551</v>
       </c>
       <c r="O15">
-        <v>0.7864684806773418</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="P15">
-        <v>0.7864684806773418</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="Q15">
-        <v>326541.4104839973</v>
+        <v>736.4353169438915</v>
       </c>
       <c r="R15">
-        <v>326541.4104839973</v>
+        <v>6627.917852495024</v>
       </c>
       <c r="S15">
-        <v>0.237888965132636</v>
+        <v>0.0004299160394001374</v>
       </c>
       <c r="T15">
-        <v>0.237888965132636</v>
+        <v>0.0004299160394001375</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H16">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.44917501160389</v>
+        <v>27.06976999999999</v>
       </c>
       <c r="N16">
-        <v>1.44917501160389</v>
+        <v>81.20930999999999</v>
       </c>
       <c r="O16">
-        <v>0.005866335457934059</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="P16">
-        <v>0.005866335457934059</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="Q16">
-        <v>2435.700224319572</v>
+        <v>68150.34561939391</v>
       </c>
       <c r="R16">
-        <v>2435.700224319572</v>
+        <v>613353.1105745451</v>
       </c>
       <c r="S16">
-        <v>0.001774434075230737</v>
+        <v>0.03978479304065288</v>
       </c>
       <c r="T16">
-        <v>0.001774434075230737</v>
+        <v>0.03978479304065288</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3571.21887944288</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H17">
-        <v>3571.21887944288</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I17">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J17">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.283615749600066</v>
+        <v>28.294172</v>
       </c>
       <c r="N17">
-        <v>0.283615749600066</v>
+        <v>84.882516</v>
       </c>
       <c r="O17">
-        <v>0.001148091234657712</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="P17">
-        <v>0.001148091234657712</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="Q17">
-        <v>1012.8539194791</v>
+        <v>71232.87714725976</v>
       </c>
       <c r="R17">
-        <v>1012.8539194791</v>
+        <v>641095.8943253378</v>
       </c>
       <c r="S17">
-        <v>0.0007378750841379897</v>
+        <v>0.0415843125847259</v>
       </c>
       <c r="T17">
-        <v>0.0007378750841379897</v>
+        <v>0.0415843125847259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3571.21887944288</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H18">
-        <v>3571.21887944288</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I18">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J18">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.9794562998195</v>
+        <v>205.3474576666667</v>
       </c>
       <c r="N18">
-        <v>23.9794562998195</v>
+        <v>616.042373</v>
       </c>
       <c r="O18">
-        <v>0.09707008030584358</v>
+        <v>0.7795054027156469</v>
       </c>
       <c r="P18">
-        <v>0.09707008030584358</v>
+        <v>0.7795054027156471</v>
       </c>
       <c r="Q18">
-        <v>85635.8870566909</v>
+        <v>516978.9108679975</v>
       </c>
       <c r="R18">
-        <v>85635.8870566909</v>
+        <v>4652810.197811977</v>
       </c>
       <c r="S18">
-        <v>0.06238667408196869</v>
+        <v>0.3018018292986073</v>
       </c>
       <c r="T18">
-        <v>0.06238667408196869</v>
+        <v>0.3018018292986074</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3571.21887944288</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H19">
-        <v>3571.21887944288</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I19">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J19">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.0369596986572</v>
+        <v>2.405564</v>
       </c>
       <c r="N19">
-        <v>27.0369596986572</v>
+        <v>7.216692</v>
       </c>
       <c r="O19">
-        <v>0.109447012324223</v>
+        <v>0.00913159654317283</v>
       </c>
       <c r="P19">
-        <v>0.109447012324223</v>
+        <v>0.009131596543172832</v>
       </c>
       <c r="Q19">
-        <v>96554.90091858087</v>
+        <v>6056.202842121366</v>
       </c>
       <c r="R19">
-        <v>96554.90091858087</v>
+        <v>54505.82557909229</v>
       </c>
       <c r="S19">
-        <v>0.07034129430616597</v>
+        <v>0.003535488697763043</v>
       </c>
       <c r="T19">
-        <v>0.07034129430616597</v>
+        <v>0.003535488697763044</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H20">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>194.283207597722</v>
+        <v>0.02353333333333333</v>
       </c>
       <c r="N20">
-        <v>194.283207597722</v>
+        <v>0.0706</v>
       </c>
       <c r="O20">
-        <v>0.7864684806773418</v>
+        <v>8.933327291063576E-05</v>
       </c>
       <c r="P20">
-        <v>0.7864684806773418</v>
+        <v>8.933327291063577E-05</v>
       </c>
       <c r="Q20">
-        <v>693827.8589317051</v>
+        <v>86.16205440431112</v>
       </c>
       <c r="R20">
-        <v>693827.8589317051</v>
+        <v>775.4584896388001</v>
       </c>
       <c r="S20">
-        <v>0.5054611330820616</v>
+        <v>5.029966423908325E-05</v>
       </c>
       <c r="T20">
-        <v>0.5054611330820616</v>
+        <v>5.029966423908325E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H21">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.44917501160389</v>
+        <v>0.292517</v>
       </c>
       <c r="N21">
-        <v>1.44917501160389</v>
+        <v>0.877551</v>
       </c>
       <c r="O21">
-        <v>0.005866335457934059</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="P21">
-        <v>0.005866335457934059</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="Q21">
-        <v>5175.321161056666</v>
+        <v>1070.985793265689</v>
       </c>
       <c r="R21">
-        <v>5175.321161056666</v>
+        <v>9638.872139391198</v>
       </c>
       <c r="S21">
-        <v>0.003770277691298013</v>
+        <v>0.0006252198392729708</v>
       </c>
       <c r="T21">
-        <v>0.003770277691298013</v>
+        <v>0.000625219839272971</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>268.410796938525</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H22">
-        <v>268.410796938525</v>
+        <v>10983.831298</v>
       </c>
       <c r="I22">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J22">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.283615749600066</v>
+        <v>27.06976999999999</v>
       </c>
       <c r="N22">
-        <v>0.283615749600066</v>
+        <v>81.20930999999999</v>
       </c>
       <c r="O22">
-        <v>0.001148091234657712</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="P22">
-        <v>0.001148091234657712</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="Q22">
-        <v>76.12552937447087</v>
+        <v>99109.92898522048</v>
       </c>
       <c r="R22">
-        <v>76.12552937447087</v>
+        <v>891989.3608669844</v>
       </c>
       <c r="S22">
-        <v>5.545827518851377E-05</v>
+        <v>0.05785837147432896</v>
       </c>
       <c r="T22">
-        <v>5.545827518851377E-05</v>
+        <v>0.05785837147432897</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>268.410796938525</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H23">
-        <v>268.410796938525</v>
+        <v>10983.831298</v>
       </c>
       <c r="I23">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J23">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.9794562998195</v>
+        <v>28.294172</v>
       </c>
       <c r="N23">
-        <v>23.9794562998195</v>
+        <v>84.882516</v>
       </c>
       <c r="O23">
-        <v>0.09707008030584358</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="P23">
-        <v>0.09707008030584358</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="Q23">
-        <v>6436.344975587085</v>
+        <v>103592.8039881984</v>
       </c>
       <c r="R23">
-        <v>6436.344975587085</v>
+        <v>932335.2358937858</v>
       </c>
       <c r="S23">
-        <v>0.004688947240135992</v>
+        <v>0.06047538320918713</v>
       </c>
       <c r="T23">
-        <v>0.004688947240135992</v>
+        <v>0.06047538320918714</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>268.410796938525</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H24">
-        <v>268.410796938525</v>
+        <v>10983.831298</v>
       </c>
       <c r="I24">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J24">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>27.0369596986572</v>
+        <v>205.3474576666667</v>
       </c>
       <c r="N24">
-        <v>27.0369596986572</v>
+        <v>616.042373</v>
       </c>
       <c r="O24">
-        <v>0.109447012324223</v>
+        <v>0.7795054027156469</v>
       </c>
       <c r="P24">
-        <v>0.109447012324223</v>
+        <v>0.7795054027156471</v>
       </c>
       <c r="Q24">
-        <v>7257.011899511361</v>
+        <v>751833.9441612879</v>
       </c>
       <c r="R24">
-        <v>7257.011899511361</v>
+        <v>6766505.49745159</v>
       </c>
       <c r="S24">
-        <v>0.005286812010063838</v>
+        <v>0.4389054464440239</v>
       </c>
       <c r="T24">
-        <v>0.005286812010063838</v>
+        <v>0.4389054464440239</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>268.410796938525</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H25">
-        <v>268.410796938525</v>
+        <v>10983.831298</v>
       </c>
       <c r="I25">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J25">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>194.283207597722</v>
+        <v>2.405564</v>
       </c>
       <c r="N25">
-        <v>194.283207597722</v>
+        <v>7.216692</v>
       </c>
       <c r="O25">
-        <v>0.7864684806773418</v>
+        <v>0.00913159654317283</v>
       </c>
       <c r="P25">
-        <v>0.7864684806773418</v>
+        <v>0.009131596543172832</v>
       </c>
       <c r="Q25">
-        <v>52147.71058307745</v>
+        <v>8807.436384180692</v>
       </c>
       <c r="R25">
-        <v>52147.71058307745</v>
+        <v>79266.92745762623</v>
       </c>
       <c r="S25">
-        <v>0.03799017370035048</v>
+        <v>0.005141603180125753</v>
       </c>
       <c r="T25">
-        <v>0.03799017370035048</v>
+        <v>0.005141603180125754</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H26">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>1.44917501160389</v>
+        <v>0.02353333333333333</v>
       </c>
       <c r="N26">
-        <v>1.44917501160389</v>
+        <v>0.0706</v>
       </c>
       <c r="O26">
-        <v>0.005866335457934059</v>
+        <v>8.933327291063576E-05</v>
       </c>
       <c r="P26">
-        <v>0.005866335457934059</v>
+        <v>8.933327291063577E-05</v>
       </c>
       <c r="Q26">
-        <v>388.9742197679963</v>
+        <v>6.455668722355555</v>
       </c>
       <c r="R26">
-        <v>388.9742197679963</v>
+        <v>58.1010185012</v>
       </c>
       <c r="S26">
-        <v>0.0002833719449754685</v>
+        <v>3.768688797153248E-06</v>
       </c>
       <c r="T26">
-        <v>0.0002833719449754685</v>
+        <v>3.768688797153249E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.4296784924571</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H27">
-        <v>15.4296784924571</v>
+        <v>822.960602</v>
       </c>
       <c r="I27">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J27">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.283615749600066</v>
+        <v>0.292517</v>
       </c>
       <c r="N27">
-        <v>0.283615749600066</v>
+        <v>0.877551</v>
       </c>
       <c r="O27">
-        <v>0.001148091234657712</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="P27">
-        <v>0.001148091234657712</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="Q27">
-        <v>4.376099831726237</v>
+        <v>80.24332213841133</v>
       </c>
       <c r="R27">
-        <v>4.376099831726237</v>
+        <v>722.189899245702</v>
       </c>
       <c r="S27">
-        <v>3.188036270019953E-06</v>
+        <v>4.684442808258682E-05</v>
       </c>
       <c r="T27">
-        <v>3.188036270019953E-06</v>
+        <v>4.684442808258684E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.4296784924571</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H28">
-        <v>15.4296784924571</v>
+        <v>822.960602</v>
       </c>
       <c r="I28">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J28">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>23.9794562998195</v>
+        <v>27.06976999999999</v>
       </c>
       <c r="N28">
-        <v>23.9794562998195</v>
+        <v>81.20930999999999</v>
       </c>
       <c r="O28">
-        <v>0.09707008030584358</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="P28">
-        <v>0.09707008030584358</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="Q28">
-        <v>369.9953011301399</v>
+        <v>7425.784738400512</v>
       </c>
       <c r="R28">
-        <v>369.9953011301399</v>
+        <v>66832.06264560462</v>
       </c>
       <c r="S28">
-        <v>0.0002695455965579607</v>
+        <v>0.004335022901155031</v>
       </c>
       <c r="T28">
-        <v>0.0002695455965579607</v>
+        <v>0.004335022901155032</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.4296784924571</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H29">
-        <v>15.4296784924571</v>
+        <v>822.960602</v>
       </c>
       <c r="I29">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J29">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.0369596986572</v>
+        <v>28.294172</v>
       </c>
       <c r="N29">
-        <v>27.0369596986572</v>
+        <v>84.882516</v>
       </c>
       <c r="O29">
-        <v>0.109447012324223</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="P29">
-        <v>0.109447012324223</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="Q29">
-        <v>417.1715955638004</v>
+        <v>7761.662940737181</v>
       </c>
       <c r="R29">
-        <v>417.1715955638004</v>
+        <v>69854.96646663462</v>
       </c>
       <c r="S29">
-        <v>0.0003039140395832475</v>
+        <v>0.004531101800614466</v>
       </c>
       <c r="T29">
-        <v>0.0003039140395832475</v>
+        <v>0.004531101800614467</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.4296784924571</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H30">
-        <v>15.4296784924571</v>
+        <v>822.960602</v>
       </c>
       <c r="I30">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J30">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>194.283207597722</v>
+        <v>205.3474576666667</v>
       </c>
       <c r="N30">
-        <v>194.283207597722</v>
+        <v>616.042373</v>
       </c>
       <c r="O30">
-        <v>0.7864684806773418</v>
+        <v>0.7795054027156469</v>
       </c>
       <c r="P30">
-        <v>0.7864684806773418</v>
+        <v>0.7795054027156471</v>
       </c>
       <c r="Q30">
-        <v>2997.727429716149</v>
+        <v>56330.95579350983</v>
       </c>
       <c r="R30">
-        <v>2997.727429716149</v>
+        <v>506978.6021415885</v>
       </c>
       <c r="S30">
-        <v>0.002183877000310315</v>
+        <v>0.03288487237530881</v>
       </c>
       <c r="T30">
-        <v>0.002183877000310315</v>
+        <v>0.03288487237530883</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.4296784924571</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H31">
-        <v>15.4296784924571</v>
+        <v>822.960602</v>
       </c>
       <c r="I31">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J31">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.44917501160389</v>
+        <v>2.405564</v>
       </c>
       <c r="N31">
-        <v>1.44917501160389</v>
+        <v>7.216692</v>
       </c>
       <c r="O31">
-        <v>0.005866335457934059</v>
+        <v>0.00913159654317283</v>
       </c>
       <c r="P31">
-        <v>0.005866335457934059</v>
+        <v>0.009131596543172832</v>
       </c>
       <c r="Q31">
-        <v>22.36030450835081</v>
+        <v>659.8947991965093</v>
       </c>
       <c r="R31">
-        <v>22.36030450835081</v>
+        <v>5939.053192768584</v>
       </c>
       <c r="S31">
-        <v>1.628972476004806E-05</v>
+        <v>0.000385233233610559</v>
       </c>
       <c r="T31">
-        <v>1.628972476004806E-05</v>
+        <v>0.0003852332336105591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H32">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I32">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J32">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.02353333333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.0706</v>
+      </c>
+      <c r="O32">
+        <v>8.933327291063576E-05</v>
+      </c>
+      <c r="P32">
+        <v>8.933327291063577E-05</v>
+      </c>
+      <c r="Q32">
+        <v>0.6368887343555556</v>
+      </c>
+      <c r="R32">
+        <v>5.731998609200001</v>
+      </c>
+      <c r="S32">
+        <v>3.718027583861353E-07</v>
+      </c>
+      <c r="T32">
+        <v>3.718027583861354E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H33">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I33">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J33">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.292517</v>
+      </c>
+      <c r="N33">
+        <v>0.877551</v>
+      </c>
+      <c r="O33">
+        <v>0.00111040372487254</v>
+      </c>
+      <c r="P33">
+        <v>0.00111040372487254</v>
+      </c>
+      <c r="Q33">
+        <v>7.916463820431333</v>
+      </c>
+      <c r="R33">
+        <v>71.248174383882</v>
+      </c>
+      <c r="S33">
+        <v>4.621471422443504E-06</v>
+      </c>
+      <c r="T33">
+        <v>4.621471422443505E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H34">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I34">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J34">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>27.06976999999999</v>
+      </c>
+      <c r="N34">
+        <v>81.20930999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.1027576976361816</v>
+      </c>
+      <c r="P34">
+        <v>0.1027576976361816</v>
+      </c>
+      <c r="Q34">
+        <v>732.5962416967133</v>
+      </c>
+      <c r="R34">
+        <v>6593.366175270419</v>
+      </c>
+      <c r="S34">
+        <v>0.0004276748649381693</v>
+      </c>
+      <c r="T34">
+        <v>0.0004276748649381694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H35">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I35">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J35">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>28.294172</v>
+      </c>
+      <c r="N35">
+        <v>84.882516</v>
+      </c>
+      <c r="O35">
+        <v>0.1074055661072154</v>
+      </c>
+      <c r="P35">
+        <v>0.1074055661072154</v>
+      </c>
+      <c r="Q35">
+        <v>765.7325521835014</v>
+      </c>
+      <c r="R35">
+        <v>6891.592969651512</v>
+      </c>
+      <c r="S35">
+        <v>0.0004470191726282615</v>
+      </c>
+      <c r="T35">
+        <v>0.0004470191726282616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H36">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I36">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J36">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>205.3474576666667</v>
+      </c>
+      <c r="N36">
+        <v>616.042373</v>
+      </c>
+      <c r="O36">
+        <v>0.7795054027156469</v>
+      </c>
+      <c r="P36">
+        <v>0.7795054027156471</v>
+      </c>
+      <c r="Q36">
+        <v>5557.371774070299</v>
+      </c>
+      <c r="R36">
+        <v>50016.34596663269</v>
+      </c>
+      <c r="S36">
+        <v>0.003244281211956663</v>
+      </c>
+      <c r="T36">
+        <v>0.003244281211956664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H37">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I37">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J37">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.405564</v>
+      </c>
+      <c r="N37">
+        <v>7.216692</v>
+      </c>
+      <c r="O37">
+        <v>0.00913159654317283</v>
+      </c>
+      <c r="P37">
+        <v>0.009131596543172832</v>
+      </c>
+      <c r="Q37">
+        <v>65.10240558234933</v>
+      </c>
+      <c r="R37">
+        <v>585.9216502411441</v>
+      </c>
+      <c r="S37">
+        <v>3.800546730910985E-05</v>
+      </c>
+      <c r="T37">
+        <v>3.800546730910986E-05</v>
       </c>
     </row>
   </sheetData>
